--- a/AIAD/src/assets/statistics.xlsx
+++ b/AIAD/src/assets/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>Wait time</t>
   </si>
@@ -65,16 +65,13 @@
     <t>elev0</t>
   </si>
   <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>NO_DIRECTION</t>
+  </si>
+  <si>
     <t>DOWN</t>
-  </si>
-  <si>
-    <t>NO_DIRECTION</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>elev1</t>
   </si>
 </sst>
 </file>
@@ -130,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:Y28"/>
+  <dimension ref="B2:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,6 +146,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9897.0</v>
+      </c>
+    </row>
     <row r="6">
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -228,7 +233,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -240,13 +245,13 @@
         <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1.512908734925E12</v>
+        <v>1.512915536315E12</v>
       </c>
       <c r="M7" t="n">
-        <v>1.512908735802E12</v>
+        <v>1.512915536745E12</v>
       </c>
       <c r="N7" t="n">
-        <v>877.0</v>
+        <v>430.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
@@ -255,25 +260,25 @@
         <v>16</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.512908735802E12</v>
+        <v>1.512915536745E12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.512908737492E12</v>
+        <v>1.51291554419E12</v>
       </c>
       <c r="X7" t="n">
-        <v>1690.0</v>
+        <v>7445.0</v>
       </c>
     </row>
     <row r="8">
@@ -281,28 +286,28 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.512908735398E12</v>
+        <v>1.512915538297E12</v>
       </c>
       <c r="M8" t="n">
-        <v>1.512908748327E12</v>
+        <v>1.512915545693E12</v>
       </c>
       <c r="N8" t="n">
-        <v>12929.0</v>
+        <v>7396.0</v>
       </c>
       <c r="P8" t="n">
         <v>1.0</v>
@@ -311,10 +316,10 @@
         <v>16</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="T8" t="s">
         <v>19</v>
@@ -323,13 +328,13 @@
         <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>1.512908735802E12</v>
+        <v>1.512915545693E12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.512908737492E12</v>
+        <v>1.512915551206E12</v>
       </c>
       <c r="X8" t="n">
-        <v>1690.0</v>
+        <v>5513.0</v>
       </c>
     </row>
     <row r="9">
@@ -340,10 +345,10 @@
         <v>16</v>
       </c>
       <c r="R9" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="T9" t="s">
         <v>19</v>
@@ -352,10 +357,10 @@
         <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>1.512908746516E12</v>
+        <v>1.512915550204E12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51290874852E12</v>
+        <v>1.512915552208E12</v>
       </c>
       <c r="X9" t="n">
         <v>2004.0</v>
@@ -372,7 +377,7 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="T10" t="s">
         <v>19</v>
@@ -381,54 +386,27 @@
         <v>19</v>
       </c>
       <c r="V10" t="n">
-        <v>1.512908746516E12</v>
+        <v>1.512915550204E12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.512908755538E12</v>
+        <v>1.51291555321E12</v>
       </c>
       <c r="X10" t="n">
-        <v>9022.0</v>
+        <v>3006.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.512908738396E12</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.512908746516E12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8120.0</v>
-      </c>
       <c r="P11" t="n">
         <v>4.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R11" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c r="T11" t="s">
         <v>19</v>
@@ -437,42 +415,158 @@
         <v>19</v>
       </c>
       <c r="V11" t="n">
-        <v>1.512908748327E12</v>
+        <v>1.512915550204E12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.512908750332E12</v>
+        <v>1.512915552208E12</v>
       </c>
       <c r="X11" t="n">
-        <v>2005.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J28" t="s">
+        <v>2004.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="P12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.512915550204E12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.51291555321E12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3006.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="P13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.512915550204E12</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.51291555321E12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3006.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="K28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.512908748439E12</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.512908752838E12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4399.0</v>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.512915543313E12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.51291555321E12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9897.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="P16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.51291555321E12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.512915558222E12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5012.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.512915547823E12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.512915550204E12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2381.0</v>
       </c>
     </row>
   </sheetData>

--- a/AIAD/src/assets/statistics.xlsx
+++ b/AIAD/src/assets/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
   <si>
     <t>Wait time</t>
   </si>
@@ -65,13 +65,22 @@
     <t>elev0</t>
   </si>
   <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>NO_DIRECTION</t>
+  </si>
+  <si>
     <t>UP</t>
   </si>
   <si>
-    <t>NO_DIRECTION</t>
-  </si>
-  <si>
-    <t>DOWN</t>
+    <t>elev1</t>
+  </si>
+  <si>
+    <t>elev2</t>
+  </si>
+  <si>
+    <t>elev3</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:Y17"/>
+  <dimension ref="B2:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,10 +157,10 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>430.0</v>
+        <v>887.0</v>
       </c>
       <c r="C4" t="n">
-        <v>9897.0</v>
+        <v>3418.0</v>
       </c>
     </row>
     <row r="6">
@@ -226,6 +235,15 @@
       </c>
     </row>
     <row r="7">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
@@ -233,7 +251,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -245,13 +263,13 @@
         <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1.512915536315E12</v>
+        <v>1.512917502335E12</v>
       </c>
       <c r="M7" t="n">
-        <v>1.512915536745E12</v>
+        <v>1.512917503222E12</v>
       </c>
       <c r="N7" t="n">
-        <v>430.0</v>
+        <v>887.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
@@ -260,54 +278,63 @@
         <v>16</v>
       </c>
       <c r="R7" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.512917503222E12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.512917505101E12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1879.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.512915536745E12</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.51291554419E12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7445.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.512915538297E12</v>
+        <v>1.512917502784E12</v>
       </c>
       <c r="M8" t="n">
-        <v>1.512915545693E12</v>
+        <v>1.512917506202E12</v>
       </c>
       <c r="N8" t="n">
-        <v>7396.0</v>
+        <v>3418.0</v>
       </c>
       <c r="P8" t="n">
         <v>1.0</v>
@@ -316,28 +343,64 @@
         <v>16</v>
       </c>
       <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.512917503222E12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.512917505101E12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1879.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.0</v>
       </c>
-      <c r="S8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.512915545693E12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.512915551206E12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5513.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.512917504815E12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.512917508209E12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3394.0</v>
+      </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
@@ -345,10 +408,10 @@
         <v>16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" t="s">
         <v>19</v>
@@ -357,16 +420,25 @@
         <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>1.512915550204E12</v>
+        <v>1.512917503222E12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.512915552208E12</v>
+        <v>1.512917505101E12</v>
       </c>
       <c r="X9" t="n">
-        <v>2004.0</v>
+        <v>1879.0</v>
       </c>
     </row>
     <row r="10">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P10" t="n">
         <v>3.0</v>
       </c>
@@ -377,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T10" t="s">
         <v>19</v>
@@ -386,13 +458,13 @@
         <v>19</v>
       </c>
       <c r="V10" t="n">
-        <v>1.512915550204E12</v>
+        <v>1.512917503222E12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51291555321E12</v>
+        <v>1.512917505101E12</v>
       </c>
       <c r="X10" t="n">
-        <v>3006.0</v>
+        <v>1879.0</v>
       </c>
     </row>
     <row r="11">
@@ -400,13 +472,13 @@
         <v>4.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T11" t="s">
         <v>19</v>
@@ -415,13 +487,13 @@
         <v>19</v>
       </c>
       <c r="V11" t="n">
-        <v>1.512915550204E12</v>
+        <v>1.512917506202E12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.512915552208E12</v>
+        <v>1.512917507706E12</v>
       </c>
       <c r="X11" t="n">
-        <v>2004.0</v>
+        <v>1504.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,13 +501,13 @@
         <v>5.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T12" t="s">
         <v>19</v>
@@ -444,13 +516,13 @@
         <v>19</v>
       </c>
       <c r="V12" t="n">
-        <v>1.512915550204E12</v>
+        <v>1.512917506202E12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51291555321E12</v>
+        <v>1.512917507706E12</v>
       </c>
       <c r="X12" t="n">
-        <v>3006.0</v>
+        <v>1504.0</v>
       </c>
     </row>
     <row r="13">
@@ -458,13 +530,13 @@
         <v>6.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T13" t="s">
         <v>19</v>
@@ -473,100 +545,158 @@
         <v>19</v>
       </c>
       <c r="V13" t="n">
-        <v>1.512915550204E12</v>
+        <v>1.512917506202E12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51291555321E12</v>
+        <v>1.512917509209E12</v>
       </c>
       <c r="X13" t="n">
+        <v>3007.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="P14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.512917506202E12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.512917510211E12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4009.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="P15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.512917506202E12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.512917510211E12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4009.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="P18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.512917508209E12</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.512917511215E12</v>
+      </c>
+      <c r="X18" t="n">
         <v>3006.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="F14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" t="n">
+    <row r="19">
+      <c r="P19" t="n">
         <v>12.0</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.512915543313E12</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.51291555321E12</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9897.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="P16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.51291555321E12</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.512915558222E12</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5012.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.512915547823E12</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.512915550204E12</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2381.0</v>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.512917508209E12</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.512917511215E12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3006.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="P20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.512917508209E12</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.512917511215E12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3006.0</v>
       </c>
     </row>
   </sheetData>

--- a/AIAD/src/assets/statistics.xlsx
+++ b/AIAD/src/assets/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
   <si>
     <t>Wait time</t>
   </si>
@@ -62,25 +62,25 @@
     <t>Take</t>
   </si>
   <si>
+    <t>elev3</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>NO_DIRECTION</t>
+  </si>
+  <si>
     <t>elev0</t>
   </si>
   <si>
-    <t>DOWN</t>
-  </si>
-  <si>
-    <t>NO_DIRECTION</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
+    <t>elev2</t>
+  </si>
+  <si>
     <t>elev1</t>
-  </si>
-  <si>
-    <t>elev2</t>
-  </si>
-  <si>
-    <t>elev3</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:Y20"/>
+  <dimension ref="B2:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -157,10 +157,10 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>887.0</v>
+        <v>362.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3418.0</v>
+        <v>8995.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,13 +236,13 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>14.014084507042257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>81.69014084507042</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -251,7 +251,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -263,78 +263,78 @@
         <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1.512917502335E12</v>
+        <v>1.51292124491E12</v>
       </c>
       <c r="M7" t="n">
-        <v>1.512917503222E12</v>
+        <v>1.51292124936E12</v>
       </c>
       <c r="N7" t="n">
-        <v>887.0</v>
+        <v>4450.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.512917503222E12</v>
+        <v>1.512921248803E12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.512917505101E12</v>
+        <v>1.512921255922E12</v>
       </c>
       <c r="X7" t="n">
-        <v>1879.0</v>
+        <v>7119.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>18.94006849315069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>79.45205479452055</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="n">
-        <v>1.512917502784E12</v>
+        <v>1.512921248404E12</v>
       </c>
       <c r="M8" t="n">
-        <v>1.512917506202E12</v>
+        <v>1.512921248803E12</v>
       </c>
       <c r="N8" t="n">
-        <v>3418.0</v>
+        <v>399.0</v>
       </c>
       <c r="P8" t="n">
         <v>1.0</v>
@@ -343,25 +343,25 @@
         <v>16</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="T8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V8" t="n">
-        <v>1.512917503222E12</v>
+        <v>1.51292124936E12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.512917505101E12</v>
+        <v>1.512921252413E12</v>
       </c>
       <c r="X8" t="n">
-        <v>1879.0</v>
+        <v>3053.0</v>
       </c>
     </row>
     <row r="9">
@@ -369,10 +369,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>20.10045662100457</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>72.6027397260274</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -381,7 +381,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -393,13 +393,13 @@
         <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>1.512917504815E12</v>
+        <v>1.512921249151E12</v>
       </c>
       <c r="M9" t="n">
-        <v>1.512917508209E12</v>
+        <v>1.512921250863E12</v>
       </c>
       <c r="N9" t="n">
-        <v>3394.0</v>
+        <v>1712.0</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
@@ -411,33 +411,60 @@
         <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V9" t="n">
-        <v>1.512917503222E12</v>
+        <v>1.51292124936E12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.512917505101E12</v>
+        <v>1.512921254918E12</v>
       </c>
       <c r="X9" t="n">
-        <v>1879.0</v>
+        <v>5558.0</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.375000000000002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>91.66666666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
+      <c r="H10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.512921249948E12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.512921255318E12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5370.0</v>
       </c>
       <c r="P10" t="n">
         <v>3.0</v>
@@ -446,170 +473,417 @@
         <v>16</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="T10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.51292124936E12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.512921250909E12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1549.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="U10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.512917503222E12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.512917505101E12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1879.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="H11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.512921252959E12</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.512921258937E12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5978.0</v>
+      </c>
       <c r="P11" t="n">
         <v>4.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V11" t="n">
-        <v>1.512917506202E12</v>
+        <v>1.512921250863E12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.512917507706E12</v>
+        <v>1.512921251866E12</v>
       </c>
       <c r="X11" t="n">
-        <v>1504.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="12">
+      <c r="F12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.512921255428E12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4500.0</v>
+      </c>
       <c r="P12" t="n">
         <v>5.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R12" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.512921250863E12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.512921253873E12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3010.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="n">
         <v>6.0</v>
       </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.512917506202E12</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.512917507706E12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1504.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.512921257438E12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5959.0</v>
+      </c>
       <c r="P13" t="n">
         <v>6.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>1.512917506202E12</v>
+        <v>1.512921250863E12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.512917509209E12</v>
+        <v>1.51292125287E12</v>
       </c>
       <c r="X13" t="n">
-        <v>3007.0</v>
+        <v>2007.0</v>
       </c>
     </row>
     <row r="14">
+      <c r="F14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.512921259435E12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>395.0</v>
+      </c>
       <c r="P14" t="n">
         <v>7.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.512921250863E12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.512921253873E12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3010.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="U14" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.512917506202E12</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.512917510211E12</v>
-      </c>
-      <c r="X14" t="n">
-        <v>4009.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="H15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.512921262945E12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.5129212675E12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4555.0</v>
+      </c>
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S15" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>1.512917506202E12</v>
+        <v>1.512921250863E12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.512917510211E12</v>
+        <v>1.512921251867E12</v>
       </c>
       <c r="X15" t="n">
-        <v>4009.0</v>
+        <v>1004.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.512921263479E12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.512921263841E12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.512921255318E12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.512921257323E12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2005.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.51292126497E12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.512921273965E12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8995.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.512921255318E12</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.512921261335E12</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6017.0</v>
       </c>
     </row>
     <row r="18">
@@ -617,86 +891,836 @@
         <v>11.0</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="S18" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="T18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V18" t="n">
-        <v>1.512917508209E12</v>
+        <v>1.512921255318E12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.512917511215E12</v>
+        <v>1.512921256321E12</v>
       </c>
       <c r="X18" t="n">
-        <v>3006.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="19">
+      <c r="F19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.512921266448E12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.51292127437E12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7922.0</v>
+      </c>
       <c r="P19" t="n">
         <v>12.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R19" t="n">
         <v>1.0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V19" t="n">
-        <v>1.512917508209E12</v>
+        <v>1.512921258937E12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.512917511215E12</v>
+        <v>1.512921263476E12</v>
       </c>
       <c r="X19" t="n">
-        <v>3006.0</v>
+        <v>4539.0</v>
       </c>
     </row>
     <row r="20">
+      <c r="F20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.512921268953E12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.512921275423E12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6470.0</v>
+      </c>
       <c r="P20" t="n">
         <v>13.0</v>
       </c>
       <c r="Q20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.512921258937E12</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.512921260445E12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1508.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="P21" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.512921258937E12</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.512921261956E12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3019.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="P22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.51292126334E12</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3510.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="P23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.512921261335E12</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1505.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="P24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.51292126334E12</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3510.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="P25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.512921261335E12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1505.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="P26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>17</v>
+      </c>
+      <c r="U26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.51292125983E12</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.512921262338E12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2508.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="P27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.512921262939E12</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3011.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="P28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.512921264942E12</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5014.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="P29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.512921261935E12</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2007.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="P30" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.51292126093E12</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="P31" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.512921259928E12</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.512921261935E12</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2007.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="P32" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q32" t="s">
         <v>21</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.512921268409E12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5012.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="P33" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.512921264399E12</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="P34" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.512921269912E12</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6515.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="P35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.512921264399E12</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="P36" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.512921263397E12</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.512921266906E12</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3509.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="P37" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.512921263841E12</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.512921269858E12</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6017.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="P38" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.0</v>
       </c>
-      <c r="S20" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" t="s">
+        <v>17</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.512921263841E12</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.512921264844E12</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1003.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="P39" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>17</v>
+      </c>
+      <c r="U39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.512921263841E12</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.512921264844E12</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1003.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="P40" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="Q40" t="s">
         <v>19</v>
       </c>
-      <c r="U20" t="s">
+      <c r="R40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.5129212675E12</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.512921271508E12</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4008.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="P41" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="Q41" t="s">
         <v>19</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.512917508209E12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.512917511215E12</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3006.0</v>
+      <c r="R41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.5129212675E12</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.512921268502E12</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="P42" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.512921273965E12</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.512921274967E12</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="P49" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.51292127437E12</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.512921276375E12</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2005.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="P53" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.512921275423E12</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.512921277929E12</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2506.0</v>
       </c>
     </row>
   </sheetData>
